--- a/_CLUSTER/groups_time_area/Frost/combined/groups_counts_area1_Mz.xlsx
+++ b/_CLUSTER/groups_time_area/Frost/combined/groups_counts_area1_Mz.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -375,58 +375,26 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/_CLUSTER/groups_time_area/Frost/combined/groups_counts_area1_Mz.xlsx
+++ b/_CLUSTER/groups_time_area/Frost/combined/groups_counts_area1_Mz.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -375,15 +375,15 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B2" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="n">
         <v>17</v>
@@ -394,7 +394,15 @@
         <v>21</v>
       </c>
       <c r="B4" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
